--- a/Doc/FSEMI_Thesis_AES_128_Plan_Rev1.5_20250219.xlsx
+++ b/Doc/FSEMI_Thesis_AES_128_Plan_Rev1.5_20250219.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hph\OneDrive - The University of Technology\ktmt\FPT\aes\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT_report\Tailieu AES\LamBaoCaoDatn\CODE AES DATN\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE774C-1504-4B19-860A-35ADD5ABB26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB273DA7-E601-40EA-989E-E69E88F79F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>AES-128 PROJECT PLAN</t>
   </si>
@@ -47,21 +47,6 @@
     <t>: THANHNC42</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>: LongHB4 - Design Specification + RTL Coding</t>
-  </si>
-  <si>
-    <t>: AnhNVT15 - Design Specification + RTL Coding</t>
-  </si>
-  <si>
-    <t>: Vinh -  Synthesis + Verification</t>
-  </si>
-  <si>
-    <t>: PhuocHVD - Verification + Synthesis</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
@@ -222,6 +207,12 @@
   </si>
   <si>
     <t>AES Cipher and Decipher RTL coding</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>: Vinhnh12</t>
   </si>
 </sst>
 </file>
@@ -231,11 +222,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -243,14 +234,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -259,7 +250,7 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,7 +259,7 @@
       <u/>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -278,7 +269,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -286,7 +277,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -294,7 +285,7 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +295,7 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -312,7 +303,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -321,7 +312,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -336,7 +327,7 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -344,7 +335,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -352,14 +343,14 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF305496"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1243,30 +1234,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:CF72"/>
+  <dimension ref="B2:CF70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" customWidth="1"/>
+    <col min="3" max="3" width="30.8984375" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="84" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="28.5">
+    <row r="2" spans="2:29" ht="28.2" x14ac:dyDescent="0.5">
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
     </row>
-    <row r="3" spans="2:29">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
@@ -1275,177 +1266,217 @@
       </c>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="2:29">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="2:29">
-      <c r="B5" s="28"/>
-      <c r="C5" t="s">
+      <c r="D6" s="31"/>
+    </row>
+    <row r="8" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:29" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B9" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="2:29">
-      <c r="B6" s="28"/>
-      <c r="C6" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="2:29" s="1" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="2:29" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="14">
+        <v>45646</v>
+      </c>
+      <c r="F11" s="14">
+        <v>45662</v>
+      </c>
+      <c r="G11" s="14">
+        <v>45667</v>
+      </c>
+      <c r="H11" s="14">
+        <v>45672</v>
+      </c>
+      <c r="I11" s="14">
+        <v>45677</v>
+      </c>
+      <c r="J11" s="14">
+        <v>45682</v>
+      </c>
+      <c r="K11" s="14">
+        <v>45687</v>
+      </c>
+      <c r="L11" s="14">
+        <v>45692</v>
+      </c>
+      <c r="M11" s="14">
+        <v>45697</v>
+      </c>
+      <c r="N11" s="14">
+        <v>45702</v>
+      </c>
+      <c r="O11" s="14">
+        <v>45707</v>
+      </c>
+      <c r="P11" s="14">
+        <v>45712</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>45717</v>
+      </c>
+      <c r="R11" s="14">
+        <v>45722</v>
+      </c>
+      <c r="S11" s="14">
+        <v>45727</v>
+      </c>
+      <c r="T11" s="14">
+        <v>45732</v>
+      </c>
+      <c r="U11" s="14">
+        <v>45737</v>
+      </c>
+      <c r="V11" s="14">
+        <v>45742</v>
+      </c>
+      <c r="W11" s="14">
+        <v>45747</v>
+      </c>
+      <c r="X11" s="14">
+        <v>45752</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>45757</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>45762</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>45767</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>45772</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="2:29">
-      <c r="B7" s="28"/>
-      <c r="C7" t="s">
+      <c r="D12" s="43"/>
+      <c r="F12" s="35"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="38"/>
+      <c r="AC12" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="2:29">
-      <c r="B8" s="30" t="s">
+    </row>
+    <row r="13" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="10" spans="2:29" s="1" customFormat="1"/>
-    <row r="11" spans="2:29" s="1" customFormat="1" ht="23.45">
-      <c r="B11" s="109" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="95">
+        <v>45646</v>
+      </c>
+      <c r="F13" s="96"/>
+      <c r="G13" s="91">
+        <v>45301</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="39"/>
+      <c r="AC13" s="111"/>
+    </row>
+    <row r="14" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="2:29" s="1" customFormat="1" ht="14.85" customHeight="1">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="2:29" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="14">
-        <v>45646</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="D14" s="45"/>
+      <c r="G14" s="100">
+        <v>45301</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="39"/>
+      <c r="AC14" s="111"/>
+    </row>
+    <row r="15" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="F15" s="95">
         <v>45662</v>
       </c>
-      <c r="G13" s="14">
-        <v>45667</v>
-      </c>
-      <c r="H13" s="14">
-        <v>45672</v>
-      </c>
-      <c r="I13" s="14">
-        <v>45677</v>
-      </c>
-      <c r="J13" s="14">
-        <v>45682</v>
-      </c>
-      <c r="K13" s="14">
-        <v>45687</v>
-      </c>
-      <c r="L13" s="14">
-        <v>45692</v>
-      </c>
-      <c r="M13" s="14">
-        <v>45697</v>
-      </c>
-      <c r="N13" s="14">
-        <v>45702</v>
-      </c>
-      <c r="O13" s="14">
-        <v>45707</v>
-      </c>
-      <c r="P13" s="14">
-        <v>45712</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>45717</v>
-      </c>
-      <c r="R13" s="14">
-        <v>45722</v>
-      </c>
-      <c r="S13" s="14">
-        <v>45727</v>
-      </c>
-      <c r="T13" s="14">
-        <v>45732</v>
-      </c>
-      <c r="U13" s="14">
-        <v>45737</v>
-      </c>
-      <c r="V13" s="14">
-        <v>45742</v>
-      </c>
-      <c r="W13" s="14">
-        <v>45747</v>
-      </c>
-      <c r="X13" s="14">
-        <v>45752</v>
-      </c>
-      <c r="Y13" s="14">
-        <v>45757</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>45762</v>
-      </c>
-      <c r="AA13" s="14">
-        <v>45767</v>
-      </c>
-      <c r="AB13" s="14">
-        <v>45772</v>
-      </c>
-      <c r="AC13" s="14">
-        <v>45777</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29" s="1" customFormat="1">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="F14" s="35"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="38"/>
-      <c r="AC14" s="110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" s="1" customFormat="1">
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="95">
-        <v>45646</v>
-      </c>
-      <c r="F15" s="96"/>
       <c r="G15" s="91">
         <v>45301</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
@@ -1460,82 +1491,113 @@
       <c r="U15" s="39"/>
       <c r="AC15" s="111"/>
     </row>
-    <row r="16" spans="2:29" s="1" customFormat="1">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="111"/>
+    </row>
+    <row r="17" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="G16" s="100">
-        <v>45301</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="39"/>
-      <c r="AC16" s="111"/>
-    </row>
-    <row r="17" spans="2:29" s="1" customFormat="1">
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="F17" s="95">
-        <v>45662</v>
-      </c>
-      <c r="G17" s="91">
-        <v>45301</v>
-      </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="39"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="95">
+        <v>45668</v>
+      </c>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="93">
+        <v>45687</v>
+      </c>
+      <c r="L17" s="96"/>
+      <c r="M17" s="93">
+        <v>45694</v>
+      </c>
+      <c r="N17" s="96"/>
+      <c r="O17" s="22">
+        <v>45707</v>
+      </c>
+      <c r="P17" s="6">
+        <v>45713</v>
+      </c>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
       <c r="AC17" s="111"/>
     </row>
-    <row r="18" spans="2:29" s="1" customFormat="1">
-      <c r="B18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="18"/>
+    <row r="18" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="D18" s="46"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="62"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="H18" s="97">
+        <v>45673</v>
+      </c>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="98">
+        <v>45687</v>
+      </c>
+      <c r="L18" s="92"/>
+      <c r="M18" s="98">
+        <v>45694</v>
+      </c>
+      <c r="N18" s="92"/>
+      <c r="O18" s="85">
+        <v>45707</v>
+      </c>
+      <c r="P18" s="99">
+        <v>45713</v>
+      </c>
+      <c r="Q18" s="53"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
@@ -1549,37 +1611,31 @@
       <c r="AB18" s="18"/>
       <c r="AC18" s="111"/>
     </row>
-    <row r="19" spans="2:29" s="1" customFormat="1">
+    <row r="19" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="95">
-        <v>45668</v>
-      </c>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="93">
-        <v>45687</v>
-      </c>
-      <c r="L19" s="96"/>
-      <c r="M19" s="93">
-        <v>45694</v>
-      </c>
-      <c r="N19" s="96"/>
-      <c r="O19" s="22">
-        <v>45707</v>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="48">
+        <v>45736</v>
       </c>
       <c r="P19" s="6">
-        <v>45713</v>
-      </c>
-      <c r="Q19" s="18"/>
+        <v>45712</v>
+      </c>
+      <c r="Q19" s="88"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
@@ -1593,43 +1649,37 @@
       <c r="AB19" s="18"/>
       <c r="AC19" s="111"/>
     </row>
-    <row r="20" spans="2:29" s="1" customFormat="1">
+    <row r="20" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="97">
-        <v>45673</v>
-      </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="98">
-        <v>45687</v>
-      </c>
-      <c r="L20" s="92"/>
-      <c r="M20" s="98">
-        <v>45694</v>
-      </c>
-      <c r="N20" s="92"/>
-      <c r="O20" s="85">
-        <v>45707</v>
-      </c>
-      <c r="P20" s="99">
-        <v>45713</v>
-      </c>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="48">
+        <v>45719</v>
+      </c>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="6">
+        <v>45747</v>
+      </c>
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
@@ -1637,36 +1687,38 @@
       <c r="AB20" s="18"/>
       <c r="AC20" s="111"/>
     </row>
-    <row r="21" spans="2:29" s="1" customFormat="1">
+    <row r="21" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="48">
-        <v>45736</v>
-      </c>
-      <c r="P21" s="6">
-        <v>45712</v>
-      </c>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="89">
+        <v>45687</v>
+      </c>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="22">
+        <v>45716</v>
+      </c>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="80">
+        <v>45742</v>
+      </c>
       <c r="W21" s="18"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
@@ -1675,12 +1727,12 @@
       <c r="AB21" s="18"/>
       <c r="AC21" s="111"/>
     </row>
-    <row r="22" spans="2:29" s="1" customFormat="1">
+    <row r="22" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="18"/>
@@ -1688,14 +1740,16 @@
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="48">
+      <c r="J22" s="18"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="94">
+        <v>45694</v>
+      </c>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="22">
         <v>45719</v>
       </c>
       <c r="R22" s="49"/>
@@ -1713,283 +1767,279 @@
       <c r="AB22" s="18"/>
       <c r="AC22" s="111"/>
     </row>
-    <row r="23" spans="2:29" s="1" customFormat="1">
-      <c r="B23" s="19" t="s">
+    <row r="23" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="AC23" s="111"/>
+    </row>
+    <row r="24" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="89">
-        <v>45687</v>
-      </c>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="22">
-        <v>45716</v>
-      </c>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="80">
-        <v>45742</v>
-      </c>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="111"/>
-    </row>
-    <row r="24" spans="2:29" s="1" customFormat="1">
-      <c r="B24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="94">
+      <c r="D24" s="57"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="102">
+        <v>45674</v>
+      </c>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="93">
         <v>45694</v>
       </c>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="22">
-        <v>45719</v>
-      </c>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="6">
-        <v>45747</v>
-      </c>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="22">
+        <v>45707</v>
+      </c>
+      <c r="P24" s="6">
+        <v>45713</v>
+      </c>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="39"/>
       <c r="AC24" s="111"/>
     </row>
-    <row r="25" spans="2:29" s="1" customFormat="1">
-      <c r="B25" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="36"/>
+    <row r="25" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>14</v>
+      </c>
       <c r="D25" s="57"/>
-      <c r="E25" s="60"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
+      <c r="I25" s="102">
+        <v>45681</v>
+      </c>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="93">
+        <v>45694</v>
+      </c>
+      <c r="N25" s="105"/>
+      <c r="O25" s="22">
+        <v>45707</v>
+      </c>
+      <c r="P25" s="6">
+        <v>45713</v>
+      </c>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
       <c r="T25" s="52"/>
       <c r="U25" s="39"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
       <c r="AC25" s="111"/>
     </row>
-    <row r="26" spans="2:29" s="1" customFormat="1">
+    <row r="26" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="58" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="57"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="102">
-        <v>45674</v>
-      </c>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="93">
-        <v>45694</v>
-      </c>
-      <c r="N26" s="104"/>
-      <c r="O26" s="22">
-        <v>45707</v>
-      </c>
-      <c r="P26" s="6">
-        <v>45713</v>
-      </c>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="39"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="37"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="84">
+        <v>45719</v>
+      </c>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="6">
+        <v>45747</v>
+      </c>
       <c r="AC26" s="111"/>
     </row>
-    <row r="27" spans="2:29" s="1" customFormat="1">
+    <row r="27" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="58" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" s="57"/>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
-      <c r="I27" s="102">
-        <v>45681</v>
-      </c>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="95">
+        <v>45688</v>
+      </c>
       <c r="L27" s="96"/>
-      <c r="M27" s="93">
-        <v>45694</v>
-      </c>
-      <c r="N27" s="105"/>
-      <c r="O27" s="22">
-        <v>45707</v>
-      </c>
-      <c r="P27" s="6">
-        <v>45713</v>
-      </c>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="39"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="22">
+        <v>45716</v>
+      </c>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="6">
+        <v>45742</v>
+      </c>
       <c r="AC27" s="111"/>
     </row>
-    <row r="28" spans="2:29" s="1" customFormat="1">
+    <row r="28" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="58" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D28" s="57"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="37"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="84">
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="95">
+        <v>45694</v>
+      </c>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="22">
         <v>45719</v>
       </c>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
       <c r="W28" s="6">
         <v>45747</v>
       </c>
       <c r="AC28" s="111"/>
     </row>
-    <row r="29" spans="2:29" s="1" customFormat="1">
-      <c r="B29" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="95">
-        <v>45688</v>
-      </c>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="22">
-        <v>45716</v>
-      </c>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="6">
-        <v>45742</v>
-      </c>
+    <row r="29" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
       <c r="AC29" s="111"/>
     </row>
-    <row r="30" spans="2:29" s="1" customFormat="1">
-      <c r="B30" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="95">
-        <v>45694</v>
-      </c>
-      <c r="M30" s="96"/>
+    <row r="30" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="102">
+        <v>45698</v>
+      </c>
       <c r="N30" s="96"/>
       <c r="O30" s="86"/>
       <c r="P30" s="86"/>
       <c r="Q30" s="22">
-        <v>45719</v>
+        <v>45723</v>
       </c>
       <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="6">
-        <v>45747</v>
-      </c>
+      <c r="S30" s="22">
+        <v>45730</v>
+      </c>
+      <c r="T30" s="6">
+        <v>45732</v>
+      </c>
+      <c r="U30" s="55"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
       <c r="AC30" s="111"/>
     </row>
-    <row r="31" spans="2:29" s="1" customFormat="1">
-      <c r="B31" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="18"/>
+    <row r="31" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="D31" s="46"/>
-      <c r="E31" s="61"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -1997,15 +2047,23 @@
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="55"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="83">
+        <v>45708</v>
+      </c>
+      <c r="P31" s="22">
+        <v>45716</v>
+      </c>
+      <c r="Q31" s="106">
+        <v>45723</v>
+      </c>
+      <c r="R31" s="107">
+        <v>45726</v>
+      </c>
+      <c r="S31" s="62"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="67"/>
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
       <c r="X31" s="18"/>
@@ -2015,40 +2073,36 @@
       <c r="AB31" s="18"/>
       <c r="AC31" s="111"/>
     </row>
-    <row r="32" spans="2:29" s="1" customFormat="1">
+    <row r="32" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="102">
-        <v>45698</v>
-      </c>
-      <c r="N32" s="96"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="22">
-        <v>45723</v>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="108">
+        <v>45719</v>
       </c>
       <c r="R32" s="86"/>
-      <c r="S32" s="22">
-        <v>45730</v>
-      </c>
-      <c r="T32" s="6">
-        <v>45732</v>
-      </c>
-      <c r="U32" s="55"/>
-      <c r="V32" s="18"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="6">
+        <v>45742</v>
+      </c>
       <c r="W32" s="18"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
@@ -2057,12 +2111,12 @@
       <c r="AB32" s="18"/>
       <c r="AC32" s="111"/>
     </row>
-    <row r="33" spans="2:29" s="1" customFormat="1">
+    <row r="33" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="18"/>
@@ -2073,25 +2127,21 @@
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="83">
-        <v>45708</v>
-      </c>
-      <c r="P33" s="22">
-        <v>45716</v>
-      </c>
-      <c r="Q33" s="106">
-        <v>45723</v>
-      </c>
-      <c r="R33" s="107">
-        <v>45726</v>
-      </c>
-      <c r="S33" s="62"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="108">
+        <v>45722</v>
+      </c>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="6">
+        <v>45747</v>
+      </c>
       <c r="X33" s="18"/>
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
@@ -2099,156 +2149,149 @@
       <c r="AB33" s="18"/>
       <c r="AC33" s="111"/>
     </row>
-    <row r="34" spans="2:29" s="1" customFormat="1">
-      <c r="B34" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="108">
+    <row r="34" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="39"/>
+      <c r="AC34" s="111"/>
+    </row>
+    <row r="35" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="48">
         <v>45719</v>
       </c>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="6">
-        <v>45742</v>
-      </c>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="111"/>
-    </row>
-    <row r="35" spans="2:29" s="1" customFormat="1">
-      <c r="B35" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="108">
-        <v>45722</v>
-      </c>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="86"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="6">
-        <v>45747</v>
-      </c>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="69">
+        <v>45767</v>
+      </c>
       <c r="AC35" s="111"/>
     </row>
-    <row r="36" spans="2:29" s="1" customFormat="1">
-      <c r="B36" s="3" t="s">
-        <v>30</v>
+    <row r="36" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>21</v>
       </c>
       <c r="D36" s="43"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="39"/>
       <c r="AC36" s="111"/>
     </row>
-    <row r="37" spans="2:29" s="1" customFormat="1">
+    <row r="37" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D37" s="43"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="36"/>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
-      <c r="J37" s="35"/>
+      <c r="J37" s="36"/>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="37"/>
       <c r="O37" s="64"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="48">
-        <v>45719</v>
-      </c>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="48">
+        <v>45740</v>
+      </c>
       <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="69">
-        <v>45767</v>
-      </c>
+      <c r="W37" s="69">
+        <v>45752</v>
+      </c>
+      <c r="Y37" s="36"/>
       <c r="AC37" s="111"/>
     </row>
-    <row r="38" spans="2:29" s="1" customFormat="1">
+    <row r="38" spans="2:29" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D38" s="43"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="48">
+        <v>45744</v>
+      </c>
+      <c r="W38" s="49"/>
+      <c r="X38" s="22">
+        <v>45751</v>
+      </c>
+      <c r="Y38" s="69">
+        <v>45761</v>
+      </c>
       <c r="AC38" s="111"/>
     </row>
-    <row r="39" spans="2:29" s="1" customFormat="1">
+    <row r="39" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D39" s="43"/>
       <c r="F39" s="36"/>
@@ -2258,114 +2301,115 @@
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="37"/>
       <c r="S39" s="36"/>
       <c r="T39" s="52"/>
-      <c r="U39" s="48">
-        <v>45740</v>
-      </c>
-      <c r="V39" s="49"/>
-      <c r="W39" s="69">
-        <v>45752</v>
-      </c>
-      <c r="Y39" s="36"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="48">
+        <v>45758</v>
+      </c>
+      <c r="Z39" s="22">
+        <v>45765</v>
+      </c>
+      <c r="AA39" s="69">
+        <v>45767</v>
+      </c>
       <c r="AC39" s="111"/>
     </row>
-    <row r="40" spans="2:29" s="1" customFormat="1">
+    <row r="40" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="AC40" s="111"/>
+    </row>
+    <row r="41" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="111"/>
+    </row>
+    <row r="42" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="101">
+        <v>45705</v>
+      </c>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="69">
+        <v>45732</v>
+      </c>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="111"/>
+    </row>
+    <row r="43" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="48">
-        <v>45744</v>
-      </c>
-      <c r="W40" s="49"/>
-      <c r="X40" s="22">
-        <v>45751</v>
-      </c>
-      <c r="Y40" s="69">
-        <v>45761</v>
-      </c>
-      <c r="AC40" s="111"/>
-    </row>
-    <row r="41" spans="2:29" s="1" customFormat="1">
-      <c r="B41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="64"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="48">
-        <v>45758</v>
-      </c>
-      <c r="Z41" s="22">
-        <v>45765</v>
-      </c>
-      <c r="AA41" s="69">
-        <v>45767</v>
-      </c>
-      <c r="AC41" s="111"/>
-    </row>
-    <row r="42" spans="2:29" s="1" customFormat="1">
-      <c r="B42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="43"/>
-      <c r="AC42" s="111"/>
-    </row>
-    <row r="43" spans="2:29" s="1" customFormat="1">
-      <c r="B43" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="61"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -2375,13 +2419,17 @@
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
+      <c r="N43" s="101">
+        <v>45705</v>
+      </c>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="69">
+        <v>45732</v>
+      </c>
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
       <c r="W43" s="18"/>
@@ -2392,12 +2440,10 @@
       <c r="AB43" s="18"/>
       <c r="AC43" s="111"/>
     </row>
-    <row r="44" spans="2:29" s="1" customFormat="1">
-      <c r="B44" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>37</v>
+    <row r="44" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="61"/>
@@ -2430,12 +2476,14 @@
       <c r="AB44" s="18"/>
       <c r="AC44" s="111"/>
     </row>
-    <row r="45" spans="2:29" s="1" customFormat="1">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="17"/>
+    <row r="45" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="18"/>
       <c r="E45" s="61"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -2466,12 +2514,12 @@
       <c r="AB45" s="18"/>
       <c r="AC45" s="111"/>
     </row>
-    <row r="46" spans="2:29" s="1" customFormat="1">
+    <row r="46" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
       <c r="C46" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="D46" s="18"/>
       <c r="E46" s="61"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -2502,12 +2550,10 @@
       <c r="AB46" s="18"/>
       <c r="AC46" s="111"/>
     </row>
-    <row r="47" spans="2:29" s="1" customFormat="1">
-      <c r="B47" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>40</v>
+    <row r="47" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="61"/>
@@ -2540,10 +2586,12 @@
       <c r="AB47" s="18"/>
       <c r="AC47" s="111"/>
     </row>
-    <row r="48" spans="2:29" s="1" customFormat="1">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19" t="s">
-        <v>41</v>
+    <row r="48" spans="2:29" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="61"/>
@@ -2555,31 +2603,31 @@
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
-      <c r="N48" s="101">
-        <v>45705</v>
-      </c>
-      <c r="O48" s="77"/>
-      <c r="P48" s="77"/>
-      <c r="Q48" s="77"/>
-      <c r="R48" s="77"/>
-      <c r="S48" s="77"/>
-      <c r="T48" s="69">
-        <v>45732</v>
-      </c>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="18"/>
-      <c r="AA48" s="18"/>
-      <c r="AB48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="78">
+        <v>45367</v>
+      </c>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
+      <c r="AB48" s="6">
+        <v>45407</v>
+      </c>
       <c r="AC48" s="111"/>
     </row>
-    <row r="49" spans="2:84" s="1" customFormat="1">
+    <row r="49" spans="2:84" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
       <c r="C49" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="61"/>
@@ -2591,33 +2639,31 @@
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
-      <c r="N49" s="101">
-        <v>45705</v>
-      </c>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="77"/>
-      <c r="R49" s="77"/>
-      <c r="S49" s="77"/>
-      <c r="T49" s="69">
-        <v>45732</v>
-      </c>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="18"/>
-      <c r="AA49" s="18"/>
-      <c r="AB49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="78">
+        <v>45367</v>
+      </c>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
+      <c r="Y49" s="77"/>
+      <c r="Z49" s="77"/>
+      <c r="AA49" s="77"/>
+      <c r="AB49" s="6">
+        <v>45407</v>
+      </c>
       <c r="AC49" s="111"/>
     </row>
-    <row r="50" spans="2:84" s="36" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="B50" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>43</v>
+    <row r="50" spans="2:84" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="C50" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="61"/>
@@ -2638,8 +2684,8 @@
       <c r="T50" s="78">
         <v>45367</v>
       </c>
-      <c r="U50" s="77"/>
-      <c r="V50" s="77"/>
+      <c r="U50" s="79"/>
+      <c r="V50" s="79"/>
       <c r="W50" s="77"/>
       <c r="X50" s="77"/>
       <c r="Y50" s="77"/>
@@ -2650,10 +2696,12 @@
       </c>
       <c r="AC50" s="111"/>
     </row>
-    <row r="51" spans="2:84" s="36" customFormat="1">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19" t="s">
-        <v>44</v>
+    <row r="51" spans="2:84" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="61"/>
@@ -2671,159 +2719,167 @@
       <c r="Q51" s="18"/>
       <c r="R51" s="18"/>
       <c r="S51" s="18"/>
-      <c r="T51" s="78">
-        <v>45367</v>
-      </c>
-      <c r="U51" s="77"/>
-      <c r="V51" s="77"/>
-      <c r="W51" s="77"/>
-      <c r="X51" s="77"/>
-      <c r="Y51" s="77"/>
-      <c r="Z51" s="77"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="78">
+        <v>45398</v>
+      </c>
       <c r="AA51" s="77"/>
       <c r="AB51" s="6">
         <v>45407</v>
       </c>
       <c r="AC51" s="111"/>
     </row>
-    <row r="52" spans="2:84" s="36" customFormat="1">
-      <c r="B52" s="16"/>
-      <c r="C52" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="78">
-        <v>45367</v>
-      </c>
-      <c r="U52" s="79"/>
-      <c r="V52" s="79"/>
-      <c r="W52" s="77"/>
-      <c r="X52" s="77"/>
-      <c r="Y52" s="77"/>
-      <c r="Z52" s="77"/>
-      <c r="AA52" s="77"/>
-      <c r="AB52" s="6">
-        <v>45407</v>
+    <row r="52" spans="2:84" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="70">
+        <v>45709</v>
+      </c>
+      <c r="P52" s="71">
+        <v>45716</v>
+      </c>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="70">
+        <v>45723</v>
+      </c>
+      <c r="S52" s="21"/>
+      <c r="T52" s="70">
+        <v>45730</v>
+      </c>
+      <c r="U52" s="74">
+        <v>45737</v>
+      </c>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="74">
+        <v>45751</v>
+      </c>
+      <c r="Y52" s="74">
+        <v>45758</v>
+      </c>
+      <c r="Z52" s="74">
+        <v>45765</v>
+      </c>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="74">
+        <v>45772</v>
       </c>
       <c r="AC52" s="111"/>
     </row>
-    <row r="53" spans="2:84" s="36" customFormat="1">
-      <c r="B53" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="78">
-        <v>45398</v>
-      </c>
-      <c r="AA53" s="77"/>
-      <c r="AB53" s="6">
-        <v>45407</v>
-      </c>
+    <row r="53" spans="2:84" s="40" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
       <c r="AC53" s="111"/>
-    </row>
-    <row r="54" spans="2:84" s="36" customFormat="1">
-      <c r="B54" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="70">
-        <v>45709</v>
-      </c>
-      <c r="P54" s="71">
-        <v>45716</v>
-      </c>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="70">
-        <v>45723</v>
-      </c>
-      <c r="S54" s="21"/>
-      <c r="T54" s="70">
-        <v>45730</v>
-      </c>
-      <c r="U54" s="74">
-        <v>45737</v>
-      </c>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="74">
-        <v>45751</v>
-      </c>
-      <c r="Y54" s="74">
-        <v>45758</v>
-      </c>
-      <c r="Z54" s="74">
-        <v>45765</v>
-      </c>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="74">
-        <v>45772</v>
-      </c>
+      <c r="CD53" s="75">
+        <v>45655</v>
+      </c>
+      <c r="CE53" s="75">
+        <v>45656</v>
+      </c>
+      <c r="CF53" s="75">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="54" spans="2:84" s="36" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="13"/>
+      <c r="G54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
       <c r="AC54" s="111"/>
-    </row>
-    <row r="55" spans="2:84" s="40" customFormat="1">
+      <c r="CD54" s="76"/>
+      <c r="CE54" s="76"/>
+      <c r="CF54" s="76"/>
+    </row>
+    <row r="55" spans="2:84" s="36" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
+      <c r="J55" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -2841,33 +2897,27 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="111"/>
-      <c r="CD55" s="75">
-        <v>45655</v>
-      </c>
-      <c r="CE55" s="75">
-        <v>45656</v>
-      </c>
-      <c r="CF55" s="75">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="56" spans="2:84" s="36" customFormat="1">
+      <c r="CD55" s="76"/>
+      <c r="CE55" s="76"/>
+      <c r="CF55" s="76"/>
+    </row>
+    <row r="56" spans="2:84" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="13"/>
-      <c r="G56" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K56" s="1"/>
+      <c r="G56" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K56" s="72"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -2890,22 +2940,24 @@
       <c r="CE56" s="76"/>
       <c r="CF56" s="76"/>
     </row>
-    <row r="57" spans="2:84" s="36" customFormat="1">
+    <row r="57" spans="2:84" s="36" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="13"/>
-      <c r="G57" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>50</v>
+      <c r="G57" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="J57" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" s="73"/>
+      <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -2923,27 +2975,12 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="111"/>
-      <c r="CD57" s="76"/>
-      <c r="CE57" s="76"/>
-      <c r="CF57" s="76"/>
-    </row>
-    <row r="58" spans="2:84" s="36" customFormat="1">
+    </row>
+    <row r="58" spans="2:84" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K58" s="72"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -2962,335 +2999,438 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="111"/>
-      <c r="CD58" s="76"/>
-      <c r="CE58" s="76"/>
-      <c r="CF58" s="76"/>
-    </row>
-    <row r="59" spans="2:84" s="36" customFormat="1">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="25" t="s">
+    </row>
+    <row r="60" spans="2:84" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B60" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="2:84" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D61" s="7"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="2:84" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="12">
+        <v>45662</v>
+      </c>
+      <c r="G62" s="12">
+        <v>45667</v>
+      </c>
+      <c r="H62" s="12">
+        <v>45672</v>
+      </c>
+      <c r="I62" s="12">
+        <v>45677</v>
+      </c>
+      <c r="J62" s="12">
+        <v>45682</v>
+      </c>
+      <c r="K62" s="12">
+        <v>45687</v>
+      </c>
+      <c r="L62" s="12">
+        <v>45692</v>
+      </c>
+      <c r="M62" s="12">
+        <v>45697</v>
+      </c>
+      <c r="N62" s="12">
+        <v>45702</v>
+      </c>
+      <c r="O62" s="12">
+        <v>45707</v>
+      </c>
+      <c r="P62" s="12">
+        <v>45712</v>
+      </c>
+      <c r="Q62" s="12">
+        <v>45717</v>
+      </c>
+      <c r="R62" s="12">
+        <v>45722</v>
+      </c>
+      <c r="S62" s="12">
+        <v>45727</v>
+      </c>
+      <c r="T62" s="12">
+        <v>45732</v>
+      </c>
+      <c r="U62" s="12">
+        <v>45737</v>
+      </c>
+      <c r="V62" s="12">
+        <v>45742</v>
+      </c>
+      <c r="W62" s="12">
+        <v>45747</v>
+      </c>
+      <c r="X62" s="12">
+        <v>45752</v>
+      </c>
+      <c r="Y62" s="12">
+        <v>45757</v>
+      </c>
+      <c r="Z62" s="12">
+        <v>45762</v>
+      </c>
+      <c r="AA62" s="12">
+        <v>45767</v>
+      </c>
+      <c r="AB62" s="12">
+        <v>45772</v>
+      </c>
+      <c r="AC62" s="12">
+        <v>45777</v>
+      </c>
+      <c r="AD62" s="12">
+        <v>45782</v>
+      </c>
+      <c r="AE62" s="12">
+        <v>45787</v>
+      </c>
+      <c r="AF62" s="12">
+        <v>45792</v>
+      </c>
+      <c r="AG62" s="12">
+        <v>45797</v>
+      </c>
+      <c r="AH62" s="12">
+        <v>45802</v>
+      </c>
+      <c r="AI62" s="12">
+        <v>45807</v>
+      </c>
+      <c r="AJ62" s="12">
+        <v>45812</v>
+      </c>
+      <c r="AK62" s="12">
+        <v>45610</v>
+      </c>
+      <c r="AL62" s="12">
+        <v>45611</v>
+      </c>
+      <c r="AM62" s="12">
+        <v>45612</v>
+      </c>
+      <c r="AN62" s="12">
+        <v>45613</v>
+      </c>
+      <c r="AO62" s="12">
+        <v>45614</v>
+      </c>
+      <c r="AP62" s="12">
+        <v>45615</v>
+      </c>
+      <c r="AQ62" s="12">
+        <v>45616</v>
+      </c>
+      <c r="AR62" s="12">
+        <v>45617</v>
+      </c>
+      <c r="AS62" s="12">
+        <v>45618</v>
+      </c>
+      <c r="AT62" s="12">
+        <v>45619</v>
+      </c>
+      <c r="AU62" s="12">
+        <v>45620</v>
+      </c>
+      <c r="AV62" s="12">
+        <v>45621</v>
+      </c>
+      <c r="AW62" s="12">
+        <v>45622</v>
+      </c>
+      <c r="AX62" s="12">
+        <v>45623</v>
+      </c>
+      <c r="AY62" s="12">
+        <v>45624</v>
+      </c>
+      <c r="AZ62" s="12">
+        <v>45625</v>
+      </c>
+      <c r="BA62" s="12">
+        <v>45626</v>
+      </c>
+      <c r="BB62" s="12">
+        <v>45627</v>
+      </c>
+      <c r="BC62" s="12">
+        <v>45628</v>
+      </c>
+      <c r="BD62" s="12">
+        <v>45629</v>
+      </c>
+      <c r="BE62" s="12">
+        <v>45630</v>
+      </c>
+      <c r="BF62" s="12">
+        <v>45631</v>
+      </c>
+      <c r="BG62" s="12">
+        <v>45632</v>
+      </c>
+      <c r="BH62" s="12">
+        <v>45633</v>
+      </c>
+      <c r="BI62" s="12">
+        <v>45634</v>
+      </c>
+      <c r="BJ62" s="12">
+        <v>45635</v>
+      </c>
+      <c r="BK62" s="12">
+        <v>45636</v>
+      </c>
+      <c r="BL62" s="12">
+        <v>45637</v>
+      </c>
+      <c r="BM62" s="12">
+        <v>45638</v>
+      </c>
+      <c r="BN62" s="12">
+        <v>45639</v>
+      </c>
+      <c r="BO62" s="12">
+        <v>45640</v>
+      </c>
+      <c r="BP62" s="12">
+        <v>45641</v>
+      </c>
+      <c r="BQ62" s="12">
+        <v>45642</v>
+      </c>
+      <c r="BR62" s="12">
+        <v>45643</v>
+      </c>
+      <c r="BS62" s="12">
+        <v>45644</v>
+      </c>
+      <c r="BT62" s="12">
+        <v>45645</v>
+      </c>
+      <c r="BU62" s="12">
+        <v>45646</v>
+      </c>
+      <c r="BV62" s="12">
+        <v>45647</v>
+      </c>
+      <c r="BW62" s="12">
+        <v>45648</v>
+      </c>
+      <c r="BX62" s="12">
+        <v>45649</v>
+      </c>
+      <c r="BY62" s="12">
+        <v>45650</v>
+      </c>
+      <c r="BZ62" s="12">
+        <v>45651</v>
+      </c>
+      <c r="CA62" s="12">
+        <v>45652</v>
+      </c>
+      <c r="CB62" s="12">
+        <v>45653</v>
+      </c>
+      <c r="CC62" s="12">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="63" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="B63" s="115">
+        <v>1</v>
+      </c>
+      <c r="C63" s="112">
+        <v>45709</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="9"/>
+      <c r="AM63" s="9"/>
+      <c r="AN63" s="9"/>
+      <c r="AO63" s="9"/>
+      <c r="AP63" s="9"/>
+      <c r="AQ63" s="9"/>
+      <c r="AR63" s="9"/>
+      <c r="AS63" s="9"/>
+      <c r="AT63" s="9"/>
+      <c r="AU63" s="9"/>
+      <c r="AV63" s="9"/>
+      <c r="AW63" s="9"/>
+      <c r="AX63" s="9"/>
+      <c r="AY63" s="9"/>
+      <c r="AZ63" s="9"/>
+      <c r="BA63" s="9"/>
+      <c r="BB63" s="9"/>
+      <c r="BC63" s="9"/>
+      <c r="BD63" s="9"/>
+      <c r="BE63" s="9"/>
+      <c r="BF63" s="9"/>
+      <c r="BG63" s="9"/>
+      <c r="BH63" s="9"/>
+      <c r="BI63" s="9"/>
+      <c r="BJ63" s="9"/>
+      <c r="BK63" s="9"/>
+      <c r="BL63" s="9"/>
+      <c r="BM63" s="9"/>
+      <c r="BN63" s="9"/>
+      <c r="BO63" s="9"/>
+      <c r="BP63" s="9"/>
+      <c r="BQ63" s="9"/>
+      <c r="BR63" s="9"/>
+      <c r="BS63" s="9"/>
+      <c r="BT63" s="9"/>
+      <c r="BU63" s="9"/>
+      <c r="BV63" s="9"/>
+      <c r="BW63" s="9"/>
+      <c r="BX63" s="9"/>
+      <c r="BY63" s="9"/>
+      <c r="BZ63" s="9"/>
+      <c r="CA63" s="9"/>
+      <c r="CB63" s="9"/>
+      <c r="CC63" s="9"/>
+    </row>
+    <row r="64" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="B64" s="116"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="9"/>
+      <c r="AJ64" s="9"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="9"/>
+      <c r="AM64" s="9"/>
+      <c r="AN64" s="9"/>
+      <c r="AO64" s="9"/>
+      <c r="AP64" s="9"/>
+      <c r="AQ64" s="9"/>
+      <c r="AR64" s="9"/>
+      <c r="AS64" s="9"/>
+      <c r="AT64" s="9"/>
+      <c r="AU64" s="9"/>
+      <c r="AV64" s="9"/>
+      <c r="AW64" s="9"/>
+      <c r="AX64" s="9"/>
+      <c r="AY64" s="9"/>
+      <c r="AZ64" s="9"/>
+      <c r="BA64" s="9"/>
+      <c r="BB64" s="9"/>
+      <c r="BC64" s="9"/>
+      <c r="BD64" s="9"/>
+      <c r="BE64" s="9"/>
+      <c r="BF64" s="9"/>
+      <c r="BG64" s="9"/>
+      <c r="BH64" s="9"/>
+      <c r="BI64" s="9"/>
+      <c r="BJ64" s="9"/>
+      <c r="BK64" s="9"/>
+      <c r="BL64" s="9"/>
+      <c r="BM64" s="9"/>
+      <c r="BN64" s="9"/>
+      <c r="BO64" s="9"/>
+      <c r="BP64" s="9"/>
+      <c r="BQ64" s="9"/>
+      <c r="BR64" s="9"/>
+      <c r="BS64" s="9"/>
+      <c r="BT64" s="9"/>
+      <c r="BU64" s="9"/>
+      <c r="BV64" s="9"/>
+      <c r="BW64" s="9"/>
+      <c r="BX64" s="9"/>
+      <c r="BY64" s="9"/>
+      <c r="BZ64" s="9"/>
+      <c r="CA64" s="9"/>
+      <c r="CB64" s="9"/>
+      <c r="CC64" s="9"/>
+    </row>
+    <row r="65" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="B65" s="116"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H59" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="K59" s="73"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="111"/>
-    </row>
-    <row r="60" spans="2:84" s="36" customFormat="1">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="111"/>
-    </row>
-    <row r="62" spans="2:84" ht="23.45">
-      <c r="B62" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="3"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="2:84">
-      <c r="D63" s="7"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="2:84">
-      <c r="B64" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="12">
-        <v>45662</v>
-      </c>
-      <c r="G64" s="12">
-        <v>45667</v>
-      </c>
-      <c r="H64" s="12">
-        <v>45672</v>
-      </c>
-      <c r="I64" s="12">
-        <v>45677</v>
-      </c>
-      <c r="J64" s="12">
-        <v>45682</v>
-      </c>
-      <c r="K64" s="12">
-        <v>45687</v>
-      </c>
-      <c r="L64" s="12">
-        <v>45692</v>
-      </c>
-      <c r="M64" s="12">
-        <v>45697</v>
-      </c>
-      <c r="N64" s="12">
-        <v>45702</v>
-      </c>
-      <c r="O64" s="12">
-        <v>45707</v>
-      </c>
-      <c r="P64" s="12">
-        <v>45712</v>
-      </c>
-      <c r="Q64" s="12">
-        <v>45717</v>
-      </c>
-      <c r="R64" s="12">
-        <v>45722</v>
-      </c>
-      <c r="S64" s="12">
-        <v>45727</v>
-      </c>
-      <c r="T64" s="12">
-        <v>45732</v>
-      </c>
-      <c r="U64" s="12">
-        <v>45737</v>
-      </c>
-      <c r="V64" s="12">
-        <v>45742</v>
-      </c>
-      <c r="W64" s="12">
-        <v>45747</v>
-      </c>
-      <c r="X64" s="12">
-        <v>45752</v>
-      </c>
-      <c r="Y64" s="12">
-        <v>45757</v>
-      </c>
-      <c r="Z64" s="12">
-        <v>45762</v>
-      </c>
-      <c r="AA64" s="12">
-        <v>45767</v>
-      </c>
-      <c r="AB64" s="12">
-        <v>45772</v>
-      </c>
-      <c r="AC64" s="12">
-        <v>45777</v>
-      </c>
-      <c r="AD64" s="12">
-        <v>45782</v>
-      </c>
-      <c r="AE64" s="12">
-        <v>45787</v>
-      </c>
-      <c r="AF64" s="12">
-        <v>45792</v>
-      </c>
-      <c r="AG64" s="12">
-        <v>45797</v>
-      </c>
-      <c r="AH64" s="12">
-        <v>45802</v>
-      </c>
-      <c r="AI64" s="12">
-        <v>45807</v>
-      </c>
-      <c r="AJ64" s="12">
-        <v>45812</v>
-      </c>
-      <c r="AK64" s="12">
-        <v>45610</v>
-      </c>
-      <c r="AL64" s="12">
-        <v>45611</v>
-      </c>
-      <c r="AM64" s="12">
-        <v>45612</v>
-      </c>
-      <c r="AN64" s="12">
-        <v>45613</v>
-      </c>
-      <c r="AO64" s="12">
-        <v>45614</v>
-      </c>
-      <c r="AP64" s="12">
-        <v>45615</v>
-      </c>
-      <c r="AQ64" s="12">
-        <v>45616</v>
-      </c>
-      <c r="AR64" s="12">
-        <v>45617</v>
-      </c>
-      <c r="AS64" s="12">
-        <v>45618</v>
-      </c>
-      <c r="AT64" s="12">
-        <v>45619</v>
-      </c>
-      <c r="AU64" s="12">
-        <v>45620</v>
-      </c>
-      <c r="AV64" s="12">
-        <v>45621</v>
-      </c>
-      <c r="AW64" s="12">
-        <v>45622</v>
-      </c>
-      <c r="AX64" s="12">
-        <v>45623</v>
-      </c>
-      <c r="AY64" s="12">
-        <v>45624</v>
-      </c>
-      <c r="AZ64" s="12">
-        <v>45625</v>
-      </c>
-      <c r="BA64" s="12">
-        <v>45626</v>
-      </c>
-      <c r="BB64" s="12">
-        <v>45627</v>
-      </c>
-      <c r="BC64" s="12">
-        <v>45628</v>
-      </c>
-      <c r="BD64" s="12">
-        <v>45629</v>
-      </c>
-      <c r="BE64" s="12">
-        <v>45630</v>
-      </c>
-      <c r="BF64" s="12">
-        <v>45631</v>
-      </c>
-      <c r="BG64" s="12">
-        <v>45632</v>
-      </c>
-      <c r="BH64" s="12">
-        <v>45633</v>
-      </c>
-      <c r="BI64" s="12">
-        <v>45634</v>
-      </c>
-      <c r="BJ64" s="12">
-        <v>45635</v>
-      </c>
-      <c r="BK64" s="12">
-        <v>45636</v>
-      </c>
-      <c r="BL64" s="12">
-        <v>45637</v>
-      </c>
-      <c r="BM64" s="12">
-        <v>45638</v>
-      </c>
-      <c r="BN64" s="12">
-        <v>45639</v>
-      </c>
-      <c r="BO64" s="12">
-        <v>45640</v>
-      </c>
-      <c r="BP64" s="12">
-        <v>45641</v>
-      </c>
-      <c r="BQ64" s="12">
-        <v>45642</v>
-      </c>
-      <c r="BR64" s="12">
-        <v>45643</v>
-      </c>
-      <c r="BS64" s="12">
-        <v>45644</v>
-      </c>
-      <c r="BT64" s="12">
-        <v>45645</v>
-      </c>
-      <c r="BU64" s="12">
-        <v>45646</v>
-      </c>
-      <c r="BV64" s="12">
-        <v>45647</v>
-      </c>
-      <c r="BW64" s="12">
-        <v>45648</v>
-      </c>
-      <c r="BX64" s="12">
-        <v>45649</v>
-      </c>
-      <c r="BY64" s="12">
-        <v>45650</v>
-      </c>
-      <c r="BZ64" s="12">
-        <v>45651</v>
-      </c>
-      <c r="CA64" s="12">
-        <v>45652</v>
-      </c>
-      <c r="CB64" s="12">
-        <v>45653</v>
-      </c>
-      <c r="CC64" s="12">
-        <v>45654</v>
-      </c>
-    </row>
-    <row r="65" spans="2:81">
-      <c r="B65" s="115">
-        <v>1</v>
-      </c>
-      <c r="C65" s="112">
-        <v>45709</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="9"/>
+      <c r="F65" s="65"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -3367,223 +3507,57 @@
       <c r="CB65" s="9"/>
       <c r="CC65" s="9"/>
     </row>
-    <row r="66" spans="2:81">
+    <row r="66" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B66" s="116"/>
-      <c r="C66" s="113"/>
+      <c r="C66" s="114"/>
       <c r="D66" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
-      <c r="AB66" s="9"/>
-      <c r="AC66" s="9"/>
-      <c r="AD66" s="9"/>
-      <c r="AE66" s="9"/>
-      <c r="AF66" s="9"/>
-      <c r="AG66" s="9"/>
-      <c r="AH66" s="9"/>
-      <c r="AI66" s="9"/>
-      <c r="AJ66" s="9"/>
-      <c r="AK66" s="9"/>
-      <c r="AL66" s="9"/>
-      <c r="AM66" s="9"/>
-      <c r="AN66" s="9"/>
-      <c r="AO66" s="9"/>
-      <c r="AP66" s="9"/>
-      <c r="AQ66" s="9"/>
-      <c r="AR66" s="9"/>
-      <c r="AS66" s="9"/>
-      <c r="AT66" s="9"/>
-      <c r="AU66" s="9"/>
-      <c r="AV66" s="9"/>
-      <c r="AW66" s="9"/>
-      <c r="AX66" s="9"/>
-      <c r="AY66" s="9"/>
-      <c r="AZ66" s="9"/>
-      <c r="BA66" s="9"/>
-      <c r="BB66" s="9"/>
-      <c r="BC66" s="9"/>
-      <c r="BD66" s="9"/>
-      <c r="BE66" s="9"/>
-      <c r="BF66" s="9"/>
-      <c r="BG66" s="9"/>
-      <c r="BH66" s="9"/>
-      <c r="BI66" s="9"/>
-      <c r="BJ66" s="9"/>
-      <c r="BK66" s="9"/>
-      <c r="BL66" s="9"/>
-      <c r="BM66" s="9"/>
-      <c r="BN66" s="9"/>
-      <c r="BO66" s="9"/>
-      <c r="BP66" s="9"/>
-      <c r="BQ66" s="9"/>
-      <c r="BR66" s="9"/>
-      <c r="BS66" s="9"/>
-      <c r="BT66" s="9"/>
-      <c r="BU66" s="9"/>
-      <c r="BV66" s="9"/>
-      <c r="BW66" s="9"/>
-      <c r="BX66" s="9"/>
-      <c r="BY66" s="9"/>
-      <c r="BZ66" s="9"/>
-      <c r="CA66" s="9"/>
-      <c r="CB66" s="9"/>
-      <c r="CC66" s="9"/>
-    </row>
-    <row r="67" spans="2:81">
-      <c r="B67" s="116"/>
-      <c r="C67" s="113"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="B67" s="66">
+        <v>2</v>
+      </c>
+      <c r="C67" s="81">
+        <v>45716</v>
+      </c>
       <c r="D67" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" s="65"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-      <c r="AA67" s="9"/>
-      <c r="AB67" s="9"/>
-      <c r="AC67" s="9"/>
-      <c r="AD67" s="9"/>
-      <c r="AE67" s="9"/>
-      <c r="AF67" s="9"/>
-      <c r="AG67" s="9"/>
-      <c r="AH67" s="9"/>
-      <c r="AI67" s="9"/>
-      <c r="AJ67" s="9"/>
-      <c r="AK67" s="9"/>
-      <c r="AL67" s="9"/>
-      <c r="AM67" s="9"/>
-      <c r="AN67" s="9"/>
-      <c r="AO67" s="9"/>
-      <c r="AP67" s="9"/>
-      <c r="AQ67" s="9"/>
-      <c r="AR67" s="9"/>
-      <c r="AS67" s="9"/>
-      <c r="AT67" s="9"/>
-      <c r="AU67" s="9"/>
-      <c r="AV67" s="9"/>
-      <c r="AW67" s="9"/>
-      <c r="AX67" s="9"/>
-      <c r="AY67" s="9"/>
-      <c r="AZ67" s="9"/>
-      <c r="BA67" s="9"/>
-      <c r="BB67" s="9"/>
-      <c r="BC67" s="9"/>
-      <c r="BD67" s="9"/>
-      <c r="BE67" s="9"/>
-      <c r="BF67" s="9"/>
-      <c r="BG67" s="9"/>
-      <c r="BH67" s="9"/>
-      <c r="BI67" s="9"/>
-      <c r="BJ67" s="9"/>
-      <c r="BK67" s="9"/>
-      <c r="BL67" s="9"/>
-      <c r="BM67" s="9"/>
-      <c r="BN67" s="9"/>
-      <c r="BO67" s="9"/>
-      <c r="BP67" s="9"/>
-      <c r="BQ67" s="9"/>
-      <c r="BR67" s="9"/>
-      <c r="BS67" s="9"/>
-      <c r="BT67" s="9"/>
-      <c r="BU67" s="9"/>
-      <c r="BV67" s="9"/>
-      <c r="BW67" s="9"/>
-      <c r="BX67" s="9"/>
-      <c r="BY67" s="9"/>
-      <c r="BZ67" s="9"/>
-      <c r="CA67" s="9"/>
-      <c r="CB67" s="9"/>
-      <c r="CC67" s="9"/>
-    </row>
-    <row r="68" spans="2:81">
-      <c r="B68" s="116"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="2:81">
-      <c r="B69" s="66">
-        <v>2</v>
-      </c>
-      <c r="C69" s="81">
-        <v>45716</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="2:81">
-      <c r="B70" s="66">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="B68" s="66">
         <v>3</v>
       </c>
+      <c r="C68" s="70">
+        <v>45723</v>
+      </c>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="B69" s="82">
+        <v>4</v>
+      </c>
+      <c r="C69" s="70">
+        <v>45730</v>
+      </c>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="B70" s="82">
+        <v>5</v>
+      </c>
       <c r="C70" s="70">
-        <v>45723</v>
+        <v>45730</v>
       </c>
       <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="2:81">
-      <c r="B71" s="82">
-        <v>4</v>
-      </c>
-      <c r="C71" s="70">
-        <v>45730</v>
-      </c>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="2:81">
-      <c r="B72" s="82">
-        <v>5</v>
-      </c>
-      <c r="C72" s="70">
-        <v>45730</v>
-      </c>
-      <c r="D72" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="AC14:AC60"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="AC12:AC58"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
